--- a/name_dictionary_cn_info.xlsx
+++ b/name_dictionary_cn_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liu_Lei\PycharmProjects\cninfo_financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F7D33A-00DC-495B-A111-411E67048B73}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AB3ACF-3CB6-43EB-8389-D2CBE67736A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="income" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="392">
   <si>
     <t>英文名称</t>
   </si>
@@ -785,9 +785,6 @@
     <t>MEMO</t>
   </si>
   <si>
-    <t>备注</t>
-  </si>
-  <si>
     <t>VARCHAR</t>
   </si>
   <si>
@@ -1203,6 +1200,18 @@
   </si>
   <si>
     <t>负债和所有者（或股东权益）合计</t>
+  </si>
+  <si>
+    <t>财务费用（流量表）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注（资产负债表）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注（利润表）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1564,14 +1573,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C63945D-7B33-4CD3-9EB7-AA7447C01F86}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.53125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.1328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" style="6" customWidth="1"/>
+    <col min="2" max="2" width="61.33203125" style="6" customWidth="1"/>
     <col min="3" max="3" width="13.46484375" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.265625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.06640625" style="6"/>
@@ -2043,7 +2052,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>80</v>
       </c>
@@ -2424,10 +2433,10 @@
         <v>249</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="D64" s="2"/>
     </row>
@@ -2436,13 +2445,13 @@
         <v>176</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
@@ -2450,18 +2459,19 @@
         <v>178</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2469,7 +2479,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CCDE079-097A-4A53-8D23-B8A128D9F79A}">
   <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2615,7 +2627,7 @@
         <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>30</v>
@@ -2629,7 +2641,7 @@
         <v>38</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>30</v>
@@ -2643,7 +2655,7 @@
         <v>40</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>30</v>
@@ -2657,7 +2669,7 @@
         <v>52</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>30</v>
@@ -2671,7 +2683,7 @@
         <v>44</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>30</v>
@@ -2685,7 +2697,7 @@
         <v>54</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>30</v>
@@ -2699,7 +2711,7 @@
         <v>56</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>30</v>
@@ -2713,7 +2725,7 @@
         <v>58</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>30</v>
@@ -2727,7 +2739,7 @@
         <v>46</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>30</v>
@@ -2741,7 +2753,7 @@
         <v>48</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>30</v>
@@ -2755,7 +2767,7 @@
         <v>50</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>30</v>
@@ -2769,7 +2781,7 @@
         <v>74</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>30</v>
@@ -2783,7 +2795,7 @@
         <v>76</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>30</v>
@@ -2797,7 +2809,7 @@
         <v>70</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>30</v>
@@ -2811,7 +2823,7 @@
         <v>72</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>30</v>
@@ -2825,7 +2837,7 @@
         <v>60</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>30</v>
@@ -2839,7 +2851,7 @@
         <v>78</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>30</v>
@@ -2853,7 +2865,7 @@
         <v>80</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>30</v>
@@ -2867,7 +2879,7 @@
         <v>62</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>30</v>
@@ -2881,7 +2893,7 @@
         <v>42</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>30</v>
@@ -2895,7 +2907,7 @@
         <v>82</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>30</v>
@@ -2906,10 +2918,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>277</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>215</v>
@@ -2920,10 +2932,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>279</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>215</v>
@@ -2934,10 +2946,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>281</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>215</v>
@@ -2951,7 +2963,7 @@
         <v>84</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>30</v>
@@ -2965,7 +2977,7 @@
         <v>86</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>30</v>
@@ -2979,7 +2991,7 @@
         <v>64</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>30</v>
@@ -2993,7 +3005,7 @@
         <v>88</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>30</v>
@@ -3007,7 +3019,7 @@
         <v>90</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>30</v>
@@ -3021,7 +3033,7 @@
         <v>92</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>30</v>
@@ -3035,7 +3047,7 @@
         <v>94</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>30</v>
@@ -3049,7 +3061,7 @@
         <v>98</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>30</v>
@@ -3063,7 +3075,7 @@
         <v>100</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>30</v>
@@ -3077,7 +3089,7 @@
         <v>102</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>30</v>
@@ -3091,7 +3103,7 @@
         <v>104</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>30</v>
@@ -3105,7 +3117,7 @@
         <v>106</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>30</v>
@@ -3119,7 +3131,7 @@
         <v>110</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>30</v>
@@ -3133,7 +3145,7 @@
         <v>114</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>30</v>
@@ -3147,7 +3159,7 @@
         <v>116</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>30</v>
@@ -3161,7 +3173,7 @@
         <v>118</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>30</v>
@@ -3175,7 +3187,7 @@
         <v>120</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>30</v>
@@ -3189,7 +3201,7 @@
         <v>124</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>30</v>
@@ -3203,7 +3215,7 @@
         <v>126</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>30</v>
@@ -3214,10 +3226,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>302</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>215</v>
@@ -3228,10 +3240,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>304</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>215</v>
@@ -3242,10 +3254,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>305</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>306</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>215</v>
@@ -3256,10 +3268,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>307</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>308</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>215</v>
@@ -3273,7 +3285,7 @@
         <v>128</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>30</v>
@@ -3287,7 +3299,7 @@
         <v>130</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>30</v>
@@ -3301,7 +3313,7 @@
         <v>132</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>30</v>
@@ -3315,7 +3327,7 @@
         <v>134</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>30</v>
@@ -3329,7 +3341,7 @@
         <v>66</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>30</v>
@@ -3343,7 +3355,7 @@
         <v>68</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>30</v>
@@ -3357,7 +3369,7 @@
         <v>108</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>30</v>
@@ -3371,7 +3383,7 @@
         <v>136</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>30</v>
@@ -3385,7 +3397,7 @@
         <v>122</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>30</v>
@@ -3399,7 +3411,7 @@
         <v>138</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>30</v>
@@ -3413,7 +3425,7 @@
         <v>198</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>30</v>
@@ -3427,7 +3439,7 @@
         <v>202</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>30</v>
@@ -3441,7 +3453,7 @@
         <v>146</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>30</v>
@@ -3452,10 +3464,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>323</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>30</v>
@@ -3469,7 +3481,7 @@
         <v>140</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>30</v>
@@ -3483,7 +3495,7 @@
         <v>142</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>30</v>
@@ -3497,7 +3509,7 @@
         <v>144</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>30</v>
@@ -3511,7 +3523,7 @@
         <v>148</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>30</v>
@@ -3525,7 +3537,7 @@
         <v>150</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>30</v>
@@ -3539,7 +3551,7 @@
         <v>152</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>30</v>
@@ -3550,10 +3562,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>331</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>30</v>
@@ -3564,10 +3576,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>333</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>30</v>
@@ -3578,10 +3590,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>335</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>30</v>
@@ -3592,10 +3604,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>336</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>337</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>30</v>
@@ -3606,10 +3618,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>338</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>339</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>30</v>
@@ -3623,7 +3635,7 @@
         <v>154</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>30</v>
@@ -3634,10 +3646,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>341</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>342</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>30</v>
@@ -3648,10 +3660,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>343</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>344</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>30</v>
@@ -3662,10 +3674,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>345</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>346</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>215</v>
@@ -3676,10 +3688,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>347</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>348</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>215</v>
@@ -3690,10 +3702,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>349</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>350</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>215</v>
@@ -3707,7 +3719,7 @@
         <v>156</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>30</v>
@@ -3721,7 +3733,7 @@
         <v>158</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>30</v>
@@ -3735,7 +3747,7 @@
         <v>160</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>30</v>
@@ -3749,7 +3761,7 @@
         <v>162</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>30</v>
@@ -3760,10 +3772,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>355</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>356</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>30</v>
@@ -3774,10 +3786,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>357</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>358</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>30</v>
@@ -3791,7 +3803,7 @@
         <v>164</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>30</v>
@@ -3802,10 +3814,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>360</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>361</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>30</v>
@@ -3819,7 +3831,7 @@
         <v>166</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>30</v>
@@ -3833,7 +3845,7 @@
         <v>168</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>30</v>
@@ -3847,7 +3859,7 @@
         <v>96</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>30</v>
@@ -3861,7 +3873,7 @@
         <v>170</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>30</v>
@@ -3875,7 +3887,7 @@
         <v>172</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>30</v>
@@ -3889,7 +3901,7 @@
         <v>174</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>30</v>
@@ -3903,7 +3915,7 @@
         <v>238</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>30</v>
@@ -3917,7 +3929,7 @@
         <v>176</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>30</v>
@@ -3928,10 +3940,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B106" s="3" t="s">
         <v>370</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>371</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>30</v>
@@ -3942,10 +3954,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B107" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>373</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>30</v>
@@ -3956,10 +3968,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B108" s="3" t="s">
         <v>374</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>375</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>30</v>
@@ -3973,7 +3985,7 @@
         <v>178</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>30</v>
@@ -3987,7 +3999,7 @@
         <v>182</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>30</v>
@@ -4001,7 +4013,7 @@
         <v>36</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>30</v>
@@ -4015,7 +4027,7 @@
         <v>32</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>30</v>
@@ -4029,7 +4041,7 @@
         <v>180</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>30</v>
@@ -4043,7 +4055,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>30</v>
@@ -4054,10 +4066,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B115" s="3" t="s">
         <v>382</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>383</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>30</v>
@@ -4071,7 +4083,7 @@
         <v>186</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>30</v>
@@ -4085,7 +4097,7 @@
         <v>34</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>30</v>
@@ -4099,7 +4111,7 @@
         <v>184</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>30</v>
@@ -4113,7 +4125,7 @@
         <v>188</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>30</v>
@@ -4127,7 +4139,7 @@
         <v>190</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>30</v>
@@ -4141,7 +4153,7 @@
         <v>192</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>30</v>
@@ -4155,7 +4167,7 @@
         <v>249</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>250</v>
+        <v>390</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>6</v>
@@ -4171,14 +4183,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.53125" customWidth="1"/>
+    <col min="1" max="1" width="18.73046875" customWidth="1"/>
+    <col min="2" max="2" width="69.9296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
@@ -4794,7 +4806,7 @@
         <v>158</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>159</v>
+        <v>389</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.4">

--- a/name_dictionary_cn_info.xlsx
+++ b/name_dictionary_cn_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liu_Lei\PycharmProjects\cninfo_financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AB3ACF-3CB6-43EB-8389-D2CBE67736A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704B87CA-B66C-40B4-88C4-65BDE0CC6CFE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="income" sheetId="2" r:id="rId1"/>
@@ -635,9 +635,6 @@
     <t>手续费及佣金收入</t>
   </si>
   <si>
-    <t>二、营业总成本</t>
-  </si>
-  <si>
     <t>其中：营业成本</t>
   </si>
   <si>
@@ -711,9 +708,6 @@
   </si>
   <si>
     <t>影响营业利润的其他科目</t>
-  </si>
-  <si>
-    <t>三、营业利润</t>
   </si>
   <si>
     <t>加：补贴收入</t>
@@ -1211,6 +1205,14 @@
   </si>
   <si>
     <t>备注（利润表）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二、营业总成本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三、营业利润</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1573,9 +1575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C63945D-7B33-4CD3-9EB7-AA7447C01F86}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1807,7 +1807,7 @@
         <v>128</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>200</v>
+        <v>390</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>30</v>
@@ -1821,7 +1821,7 @@
         <v>52</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>30</v>
@@ -1832,10 +1832,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>30</v>
@@ -1849,7 +1849,7 @@
         <v>140</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>30</v>
@@ -1863,7 +1863,7 @@
         <v>142</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>30</v>
@@ -1877,7 +1877,7 @@
         <v>144</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>30</v>
@@ -1891,7 +1891,7 @@
         <v>148</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>30</v>
@@ -1905,7 +1905,7 @@
         <v>150</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>30</v>
@@ -1919,7 +1919,7 @@
         <v>152</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>30</v>
@@ -1933,7 +1933,7 @@
         <v>54</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>30</v>
@@ -1947,7 +1947,7 @@
         <v>56</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>30</v>
@@ -1961,7 +1961,7 @@
         <v>58</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>30</v>
@@ -1975,7 +1975,7 @@
         <v>70</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>30</v>
@@ -2003,10 +2003,10 @@
         <v>166</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="D32" s="2"/>
     </row>
@@ -2015,7 +2015,7 @@
         <v>74</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>30</v>
@@ -2029,7 +2029,7 @@
         <v>76</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>30</v>
@@ -2043,7 +2043,7 @@
         <v>78</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>30</v>
@@ -2057,7 +2057,7 @@
         <v>80</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>30</v>
@@ -2071,7 +2071,7 @@
         <v>130</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>30</v>
@@ -2085,10 +2085,10 @@
         <v>156</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D38" s="2"/>
     </row>
@@ -2097,10 +2097,10 @@
         <v>168</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D39" s="2"/>
     </row>
@@ -2109,10 +2109,10 @@
         <v>170</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D40" s="2"/>
     </row>
@@ -2121,10 +2121,10 @@
         <v>172</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D41" s="2"/>
     </row>
@@ -2133,7 +2133,7 @@
         <v>82</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>30</v>
@@ -2147,7 +2147,7 @@
         <v>84</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>226</v>
+        <v>391</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>30</v>
@@ -2161,7 +2161,7 @@
         <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>30</v>
@@ -2175,7 +2175,7 @@
         <v>88</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>30</v>
@@ -2189,7 +2189,7 @@
         <v>154</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>30</v>
@@ -2203,7 +2203,7 @@
         <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>30</v>
@@ -2217,7 +2217,7 @@
         <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>30</v>
@@ -2231,7 +2231,7 @@
         <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>30</v>
@@ -2245,7 +2245,7 @@
         <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>30</v>
@@ -2259,7 +2259,7 @@
         <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>30</v>
@@ -2273,7 +2273,7 @@
         <v>102</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>30</v>
@@ -2287,7 +2287,7 @@
         <v>104</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>30</v>
@@ -2301,22 +2301,22 @@
         <v>174</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D55" s="2"/>
     </row>
@@ -2325,10 +2325,10 @@
         <v>106</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>31</v>
@@ -2339,10 +2339,10 @@
         <v>110</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>31</v>
@@ -2353,10 +2353,10 @@
         <v>116</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D58" s="2"/>
     </row>
@@ -2365,10 +2365,10 @@
         <v>118</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D59" s="2"/>
     </row>
@@ -2377,10 +2377,10 @@
         <v>132</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>31</v>
@@ -2391,10 +2391,10 @@
         <v>134</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>31</v>
@@ -2405,10 +2405,10 @@
         <v>136</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>31</v>
@@ -2419,10 +2419,10 @@
         <v>138</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>31</v>
@@ -2430,13 +2430,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D64" s="2"/>
     </row>
@@ -2445,13 +2445,13 @@
         <v>176</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
@@ -2459,13 +2459,13 @@
         <v>178</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -2627,7 +2627,7 @@
         <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>30</v>
@@ -2641,7 +2641,7 @@
         <v>38</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>30</v>
@@ -2655,7 +2655,7 @@
         <v>40</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>30</v>
@@ -2669,7 +2669,7 @@
         <v>52</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>30</v>
@@ -2683,7 +2683,7 @@
         <v>44</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>30</v>
@@ -2697,7 +2697,7 @@
         <v>54</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>30</v>
@@ -2711,7 +2711,7 @@
         <v>56</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>30</v>
@@ -2725,7 +2725,7 @@
         <v>58</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>30</v>
@@ -2739,7 +2739,7 @@
         <v>46</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>30</v>
@@ -2753,7 +2753,7 @@
         <v>48</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>30</v>
@@ -2767,7 +2767,7 @@
         <v>50</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>30</v>
@@ -2781,7 +2781,7 @@
         <v>74</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>30</v>
@@ -2795,7 +2795,7 @@
         <v>76</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>30</v>
@@ -2809,7 +2809,7 @@
         <v>70</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>30</v>
@@ -2823,7 +2823,7 @@
         <v>72</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>30</v>
@@ -2837,7 +2837,7 @@
         <v>60</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>30</v>
@@ -2851,7 +2851,7 @@
         <v>78</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>30</v>
@@ -2865,7 +2865,7 @@
         <v>80</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>30</v>
@@ -2879,7 +2879,7 @@
         <v>62</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>30</v>
@@ -2893,7 +2893,7 @@
         <v>42</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>30</v>
@@ -2907,7 +2907,7 @@
         <v>82</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>30</v>
@@ -2918,13 +2918,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>31</v>
@@ -2932,13 +2932,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>31</v>
@@ -2946,13 +2946,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>31</v>
@@ -2963,7 +2963,7 @@
         <v>84</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>30</v>
@@ -2977,7 +2977,7 @@
         <v>86</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>30</v>
@@ -2991,7 +2991,7 @@
         <v>64</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>30</v>
@@ -3005,7 +3005,7 @@
         <v>88</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>30</v>
@@ -3019,7 +3019,7 @@
         <v>90</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>30</v>
@@ -3033,7 +3033,7 @@
         <v>92</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>30</v>
@@ -3047,7 +3047,7 @@
         <v>94</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>30</v>
@@ -3061,7 +3061,7 @@
         <v>98</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>30</v>
@@ -3075,7 +3075,7 @@
         <v>100</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>30</v>
@@ -3089,7 +3089,7 @@
         <v>102</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>30</v>
@@ -3103,7 +3103,7 @@
         <v>104</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>30</v>
@@ -3117,7 +3117,7 @@
         <v>106</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>30</v>
@@ -3131,7 +3131,7 @@
         <v>110</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>30</v>
@@ -3145,7 +3145,7 @@
         <v>114</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>30</v>
@@ -3159,7 +3159,7 @@
         <v>116</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>30</v>
@@ -3173,7 +3173,7 @@
         <v>118</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>30</v>
@@ -3187,7 +3187,7 @@
         <v>120</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>30</v>
@@ -3201,7 +3201,7 @@
         <v>124</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>30</v>
@@ -3215,7 +3215,7 @@
         <v>126</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>30</v>
@@ -3226,13 +3226,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>31</v>
@@ -3240,13 +3240,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>31</v>
@@ -3254,13 +3254,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>31</v>
@@ -3268,13 +3268,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>31</v>
@@ -3285,7 +3285,7 @@
         <v>128</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>30</v>
@@ -3299,7 +3299,7 @@
         <v>130</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>30</v>
@@ -3313,7 +3313,7 @@
         <v>132</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>30</v>
@@ -3327,7 +3327,7 @@
         <v>134</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>30</v>
@@ -3341,7 +3341,7 @@
         <v>66</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>30</v>
@@ -3355,7 +3355,7 @@
         <v>68</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>30</v>
@@ -3369,7 +3369,7 @@
         <v>108</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>30</v>
@@ -3383,7 +3383,7 @@
         <v>136</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>30</v>
@@ -3397,7 +3397,7 @@
         <v>122</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>30</v>
@@ -3411,7 +3411,7 @@
         <v>138</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>30</v>
@@ -3425,7 +3425,7 @@
         <v>198</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>30</v>
@@ -3436,10 +3436,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>30</v>
@@ -3453,7 +3453,7 @@
         <v>146</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>30</v>
@@ -3464,10 +3464,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>30</v>
@@ -3481,7 +3481,7 @@
         <v>140</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>30</v>
@@ -3495,7 +3495,7 @@
         <v>142</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>30</v>
@@ -3509,7 +3509,7 @@
         <v>144</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>30</v>
@@ -3523,7 +3523,7 @@
         <v>148</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>30</v>
@@ -3537,7 +3537,7 @@
         <v>150</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>30</v>
@@ -3551,7 +3551,7 @@
         <v>152</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>30</v>
@@ -3562,10 +3562,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>30</v>
@@ -3576,10 +3576,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>30</v>
@@ -3590,10 +3590,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>30</v>
@@ -3604,10 +3604,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>30</v>
@@ -3618,10 +3618,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>30</v>
@@ -3635,7 +3635,7 @@
         <v>154</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>30</v>
@@ -3646,10 +3646,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>30</v>
@@ -3660,10 +3660,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>30</v>
@@ -3674,13 +3674,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>31</v>
@@ -3688,13 +3688,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>31</v>
@@ -3702,13 +3702,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>31</v>
@@ -3719,7 +3719,7 @@
         <v>156</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>30</v>
@@ -3733,7 +3733,7 @@
         <v>158</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>30</v>
@@ -3747,7 +3747,7 @@
         <v>160</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>30</v>
@@ -3761,7 +3761,7 @@
         <v>162</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>30</v>
@@ -3772,10 +3772,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>30</v>
@@ -3786,10 +3786,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>30</v>
@@ -3803,7 +3803,7 @@
         <v>164</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>30</v>
@@ -3814,10 +3814,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>30</v>
@@ -3831,7 +3831,7 @@
         <v>166</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>30</v>
@@ -3845,7 +3845,7 @@
         <v>168</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>30</v>
@@ -3859,7 +3859,7 @@
         <v>96</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>30</v>
@@ -3873,7 +3873,7 @@
         <v>170</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>30</v>
@@ -3887,7 +3887,7 @@
         <v>172</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>30</v>
@@ -3901,7 +3901,7 @@
         <v>174</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>30</v>
@@ -3912,10 +3912,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>30</v>
@@ -3929,7 +3929,7 @@
         <v>176</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>30</v>
@@ -3940,10 +3940,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>30</v>
@@ -3954,10 +3954,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>30</v>
@@ -3968,10 +3968,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>30</v>
@@ -3985,7 +3985,7 @@
         <v>178</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>30</v>
@@ -3999,7 +3999,7 @@
         <v>182</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>30</v>
@@ -4013,7 +4013,7 @@
         <v>36</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>30</v>
@@ -4027,7 +4027,7 @@
         <v>32</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>30</v>
@@ -4041,7 +4041,7 @@
         <v>180</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>30</v>
@@ -4055,7 +4055,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>30</v>
@@ -4066,10 +4066,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>30</v>
@@ -4083,7 +4083,7 @@
         <v>186</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>30</v>
@@ -4097,7 +4097,7 @@
         <v>34</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>30</v>
@@ -4111,7 +4111,7 @@
         <v>184</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>30</v>
@@ -4125,7 +4125,7 @@
         <v>188</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>30</v>
@@ -4139,7 +4139,7 @@
         <v>190</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>30</v>
@@ -4153,7 +4153,7 @@
         <v>192</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>30</v>
@@ -4164,10 +4164,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>6</v>
@@ -4183,7 +4183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
@@ -4806,7 +4806,7 @@
         <v>158</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.4">
